--- a/Results/RNN_Autoencoder_ClinicalData/Lambda_Abstain_Confusion_Matrix_Elements_Fold_7.xlsx
+++ b/Results/RNN_Autoencoder_ClinicalData/Lambda_Abstain_Confusion_Matrix_Elements_Fold_7.xlsx
@@ -468,7 +468,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -485,7 +485,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -502,7 +502,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -519,7 +519,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -536,7 +536,7 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -553,7 +553,7 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10">
         <v>0</v>

--- a/Results/RNN_Autoencoder_ClinicalData/Lambda_Abstain_Confusion_Matrix_Elements_Fold_7.xlsx
+++ b/Results/RNN_Autoencoder_ClinicalData/Lambda_Abstain_Confusion_Matrix_Elements_Fold_7.xlsx
@@ -414,10 +414,10 @@
         <v>0.5</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -431,10 +431,10 @@
         <v>0.55</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -448,10 +448,10 @@
         <v>0.6</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -465,10 +465,10 @@
         <v>0.65</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -482,10 +482,10 @@
         <v>0.7</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -499,10 +499,10 @@
         <v>0.75</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -516,10 +516,10 @@
         <v>0.8</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -533,10 +533,10 @@
         <v>0.85</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -550,10 +550,10 @@
         <v>0.9</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
         <v>0</v>
